--- a/top_league_soccer/Excel/dados_super_lig.xlsx
+++ b/top_league_soccer/Excel/dados_super_lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
   <si>
     <t>#</t>
   </si>
@@ -127,6 +127,9 @@
     <t>Adana Demirspor</t>
   </si>
   <si>
+    <t>Kayserispor</t>
+  </si>
+  <si>
     <t>Samsunspor</t>
   </si>
   <si>
@@ -136,9 +139,6 @@
     <t>Hatayspor</t>
   </si>
   <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
     <t>Alanyaspor</t>
   </si>
   <si>
@@ -166,27 +166,27 @@
     <t>1.6</t>
   </si>
   <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>1.5</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>1.9</t>
-  </si>
-  <si>
     <t>2.6</t>
   </si>
   <si>
@@ -214,7 +214,7 @@
     <t>3.7</t>
   </si>
   <si>
-    <t>4.0</t>
+    <t>4.2</t>
   </si>
   <si>
     <t>4.8</t>
@@ -229,9 +229,6 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
     <t>81%</t>
   </si>
   <si>
@@ -241,9 +238,6 @@
     <t>72%</t>
   </si>
   <si>
-    <t>80%</t>
-  </si>
-  <si>
     <t>88%</t>
   </si>
   <si>
@@ -253,15 +247,12 @@
     <t>73%</t>
   </si>
   <si>
-    <t>68%</t>
+    <t>69%</t>
   </si>
   <si>
     <t>85%</t>
   </si>
   <si>
-    <t>69%</t>
-  </si>
-  <si>
     <t>92%</t>
   </si>
   <si>
@@ -277,7 +268,7 @@
     <t>48%</t>
   </si>
   <si>
-    <t>52%</t>
+    <t>50%</t>
   </si>
   <si>
     <t>35%</t>
@@ -286,25 +277,19 @@
     <t>41%</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
     <t>38%</t>
   </si>
   <si>
+    <t>42%</t>
+  </si>
+  <si>
     <t>39%</t>
   </si>
   <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
     <t>54%</t>
   </si>
   <si>
-    <t>42%</t>
+    <t>34%</t>
   </si>
   <si>
     <t>2.65</t>
@@ -316,43 +301,43 @@
     <t>2.88</t>
   </si>
   <si>
+    <t>2.62</t>
+  </si>
+  <si>
+    <t>3.65</t>
+  </si>
+  <si>
+    <t>2.50</t>
+  </si>
+  <si>
+    <t>2.31</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>2.85</t>
+  </si>
+  <si>
+    <t>2.38</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>2.35</t>
+  </si>
+  <si>
+    <t>3.15</t>
+  </si>
+  <si>
+    <t>2.42</t>
+  </si>
+  <si>
     <t>2.64</t>
-  </si>
-  <si>
-    <t>3.65</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>2.44</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.52</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>3.15</t>
   </si>
 </sst>
 </file>
@@ -753,13 +738,13 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F2" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -776,13 +761,13 @@
         <v>59</v>
       </c>
       <c r="E3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -799,13 +784,13 @@
         <v>60</v>
       </c>
       <c r="E4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -822,13 +807,13 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F5" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -845,13 +830,13 @@
         <v>62</v>
       </c>
       <c r="E6" t="s">
+        <v>74</v>
+      </c>
+      <c r="F6" t="s">
         <v>76</v>
       </c>
-      <c r="F6" t="s">
-        <v>78</v>
-      </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>96</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -868,13 +853,13 @@
         <v>63</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>97</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -891,13 +876,13 @@
         <v>64</v>
       </c>
       <c r="E8" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -914,13 +899,13 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F9" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>99</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -937,13 +922,13 @@
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="F10" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>99</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -954,19 +939,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
         <v>62</v>
       </c>
       <c r="E11" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>100</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -977,19 +962,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>47</v>
+        <v>53</v>
       </c>
       <c r="D12" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="F12" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G12" t="s">
-        <v>104</v>
+        <v>95</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1000,19 +985,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>47</v>
       </c>
       <c r="D13" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>73</v>
+        <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>87</v>
       </c>
       <c r="G13" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1026,16 +1011,16 @@
         <v>55</v>
       </c>
       <c r="D14" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>81</v>
+        <v>72</v>
       </c>
       <c r="F14" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G14" t="s">
-        <v>108</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1049,16 +1034,16 @@
         <v>56</v>
       </c>
       <c r="D15" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="E15" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F15" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>109</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1075,13 +1060,13 @@
         <v>63</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F16" t="s">
-        <v>95</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>103</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1098,13 +1083,13 @@
         <v>62</v>
       </c>
       <c r="E17" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="F17" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="G17" t="s">
-        <v>111</v>
+        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1121,13 +1106,13 @@
         <v>69</v>
       </c>
       <c r="E18" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G18" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1144,13 +1129,13 @@
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>84</v>
       </c>
       <c r="G19" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1161,19 +1146,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="D20" t="s">
         <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="F20" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="G20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,16 +1172,16 @@
         <v>48</v>
       </c>
       <c r="D21" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
       <c r="E21" t="s">
+        <v>80</v>
+      </c>
+      <c r="F21" t="s">
         <v>83</v>
       </c>
-      <c r="F21" t="s">
-        <v>86</v>
-      </c>
       <c r="G21" t="s">
-        <v>100</v>
+        <v>107</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_super_lig.xlsx
+++ b/top_league_soccer/Excel/dados_super_lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
   <si>
     <t>#</t>
   </si>
@@ -112,88 +112,88 @@
     <t>Kasımpaşa</t>
   </si>
   <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
     <t>Rizespor</t>
   </si>
   <si>
+    <t>Sivasspor</t>
+  </si>
+  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
-    <t>Sivasspor</t>
-  </si>
-  <si>
-    <t>Başakşehir</t>
+    <t>Kayserispor</t>
+  </si>
+  <si>
+    <t>Samsunspor</t>
   </si>
   <si>
     <t>Adana Demirspor</t>
   </si>
   <si>
-    <t>Kayserispor</t>
-  </si>
-  <si>
-    <t>Samsunspor</t>
+    <t>Konyaspor</t>
   </si>
   <si>
     <t>Ankaragücü</t>
   </si>
   <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
+    <t>Karagümrük</t>
+  </si>
+  <si>
     <t>Hatayspor</t>
   </si>
   <si>
-    <t>Alanyaspor</t>
-  </si>
-  <si>
-    <t>Karagümrük</t>
-  </si>
-  <si>
     <t>Gaziantep</t>
   </si>
   <si>
     <t>Pendikspor</t>
   </si>
   <si>
-    <t>Konyaspor</t>
-  </si>
-  <si>
     <t>İstanbulspor</t>
   </si>
   <si>
+    <t>1.9</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>1.7</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
     <t>2.1</t>
   </si>
   <si>
     <t>2.4</t>
   </si>
   <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>1.6</t>
   </si>
   <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>1.5</t>
+    <t>2.6</t>
   </si>
   <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>7.3</t>
-  </si>
-  <si>
-    <t>6.5</t>
+    <t>7.4</t>
+  </si>
+  <si>
+    <t>6.3</t>
   </si>
   <si>
     <t>4.6</t>
@@ -205,139 +205,157 @@
     <t>5.0</t>
   </si>
   <si>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>4.8</t>
+  </si>
+  <si>
+    <t>3.6</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>4.5</t>
+  </si>
+  <si>
     <t>4.7</t>
   </si>
   <si>
-    <t>5.6</t>
-  </si>
-  <si>
-    <t>3.7</t>
-  </si>
-  <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>3.3</t>
-  </si>
-  <si>
-    <t>3.9</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
-    <t>81%</t>
-  </si>
-  <si>
-    <t>77%</t>
-  </si>
-  <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>88%</t>
-  </si>
-  <si>
-    <t>63%</t>
-  </si>
-  <si>
-    <t>73%</t>
+    <t>3.5</t>
+  </si>
+  <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>79%</t>
   </si>
   <si>
     <t>69%</t>
   </si>
   <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>68%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>74%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
     <t>85%</t>
   </si>
   <si>
-    <t>92%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>62%</t>
-  </si>
-  <si>
-    <t>48%</t>
+    <t>93%</t>
+  </si>
+  <si>
+    <t>57%</t>
+  </si>
+  <si>
+    <t>61%</t>
+  </si>
+  <si>
+    <t>46%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>37%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>56%</t>
+  </si>
+  <si>
+    <t>32%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>49%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>38%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>54%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>2.65</t>
-  </si>
-  <si>
-    <t>3.42</t>
-  </si>
-  <si>
-    <t>2.88</t>
-  </si>
-  <si>
-    <t>2.62</t>
-  </si>
-  <si>
-    <t>3.65</t>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>2.61</t>
+  </si>
+  <si>
+    <t>3.36</t>
+  </si>
+  <si>
+    <t>2.81</t>
+  </si>
+  <si>
+    <t>2.54</t>
+  </si>
+  <si>
+    <t>3.50</t>
+  </si>
+  <si>
+    <t>2.46</t>
+  </si>
+  <si>
+    <t>2.33</t>
+  </si>
+  <si>
+    <t>2.71</t>
   </si>
   <si>
     <t>2.50</t>
   </si>
   <si>
-    <t>2.31</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>2.85</t>
-  </si>
-  <si>
-    <t>2.38</t>
-  </si>
-  <si>
-    <t>2.58</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
-    <t>2.35</t>
-  </si>
-  <si>
-    <t>3.15</t>
-  </si>
-  <si>
-    <t>2.42</t>
-  </si>
-  <si>
-    <t>2.64</t>
+    <t>2.78</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>2.67</t>
+  </si>
+  <si>
+    <t>2.63</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.59</t>
   </si>
 </sst>
 </file>
@@ -738,13 +756,13 @@
         <v>58</v>
       </c>
       <c r="E2" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G2" t="s">
-        <v>92</v>
+        <v>99</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -764,10 +782,10 @@
         <v>72</v>
       </c>
       <c r="F3" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="G3" t="s">
-        <v>93</v>
+        <v>100</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -787,10 +805,10 @@
         <v>73</v>
       </c>
       <c r="F4" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G4" t="s">
-        <v>94</v>
+        <v>101</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -807,13 +825,13 @@
         <v>61</v>
       </c>
       <c r="E5" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F5" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G5" t="s">
-        <v>95</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -824,7 +842,7 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D6" t="s">
         <v>62</v>
@@ -833,10 +851,10 @@
         <v>74</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -847,7 +865,7 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D7" t="s">
         <v>63</v>
@@ -856,10 +874,10 @@
         <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -870,7 +888,7 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D8" t="s">
         <v>64</v>
@@ -879,10 +897,10 @@
         <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G8" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -899,13 +917,13 @@
         <v>65</v>
       </c>
       <c r="E9" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="G9" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -916,19 +934,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="D10" t="s">
         <v>66</v>
       </c>
       <c r="E10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G10" t="s">
-        <v>99</v>
+        <v>105</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -939,19 +957,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D11" t="s">
-        <v>62</v>
+        <v>67</v>
       </c>
       <c r="E11" t="s">
         <v>72</v>
       </c>
       <c r="F11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="G11" t="s">
-        <v>100</v>
+        <v>106</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -962,19 +980,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="D12" t="s">
-        <v>63</v>
+        <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F12" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G12" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -985,19 +1003,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>47</v>
+        <v>54</v>
       </c>
       <c r="D13" t="s">
-        <v>67</v>
+        <v>62</v>
       </c>
       <c r="E13" t="s">
         <v>78</v>
       </c>
       <c r="F13" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="G13" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1008,19 +1026,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D14" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="E14" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F14" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="G14" t="s">
-        <v>101</v>
+        <v>109</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1031,19 +1049,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D15" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="E15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="F15" t="s">
-        <v>84</v>
+        <v>93</v>
       </c>
       <c r="G15" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1054,19 +1072,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E16" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="F16" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="G16" t="s">
-        <v>103</v>
+        <v>110</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1077,19 +1095,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D17" t="s">
-        <v>62</v>
+        <v>71</v>
       </c>
       <c r="E17" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="G17" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1100,19 +1118,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D18" t="s">
-        <v>69</v>
+        <v>60</v>
       </c>
       <c r="E18" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F18" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="G18" t="s">
-        <v>92</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1123,19 +1141,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D19" t="s">
         <v>63</v>
       </c>
       <c r="E19" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="G19" t="s">
-        <v>105</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1146,19 +1164,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E20" t="s">
-        <v>71</v>
+        <v>82</v>
       </c>
       <c r="F20" t="s">
-        <v>91</v>
+        <v>97</v>
       </c>
       <c r="G20" t="s">
-        <v>106</v>
+        <v>112</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1169,19 +1187,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D21" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="E21" t="s">
         <v>80</v>
       </c>
       <c r="F21" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
       <c r="G21" t="s">
-        <v>107</v>
+        <v>113</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_super_lig.xlsx
+++ b/top_league_soccer/Excel/dados_super_lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
   <si>
     <t>#</t>
   </si>
@@ -118,39 +118,39 @@
     <t>Rizespor</t>
   </si>
   <si>
+    <t>Antalyaspor</t>
+  </si>
+  <si>
     <t>Sivasspor</t>
   </si>
   <si>
-    <t>Antalyaspor</t>
+    <t>Adana Demirspor</t>
+  </si>
+  <si>
+    <t>Samsunspor</t>
+  </si>
+  <si>
+    <t>Alanyaspor</t>
   </si>
   <si>
     <t>Kayserispor</t>
   </si>
   <si>
-    <t>Samsunspor</t>
-  </si>
-  <si>
-    <t>Adana Demirspor</t>
-  </si>
-  <si>
     <t>Konyaspor</t>
   </si>
   <si>
+    <t>Gaziantep</t>
+  </si>
+  <si>
     <t>Ankaragücü</t>
   </si>
   <si>
-    <t>Alanyaspor</t>
+    <t>Hatayspor</t>
   </si>
   <si>
     <t>Karagümrük</t>
   </si>
   <si>
-    <t>Hatayspor</t>
-  </si>
-  <si>
-    <t>Gaziantep</t>
-  </si>
-  <si>
     <t>Pendikspor</t>
   </si>
   <si>
@@ -160,202 +160,196 @@
     <t>1.9</t>
   </si>
   <si>
+    <t>2.6</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>2.4</t>
+  </si>
+  <si>
+    <t>1.6</t>
+  </si>
+  <si>
+    <t>2.8</t>
+  </si>
+  <si>
     <t>2.5</t>
   </si>
   <si>
-    <t>1.7</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
     <t>2.2</t>
   </si>
   <si>
-    <t>1.6</t>
-  </si>
-  <si>
-    <t>2.6</t>
-  </si>
-  <si>
-    <t>2.8</t>
-  </si>
-  <si>
-    <t>7.4</t>
+    <t>7.2</t>
   </si>
   <si>
     <t>6.3</t>
   </si>
   <si>
+    <t>4.9</t>
+  </si>
+  <si>
+    <t>5.6</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.7</t>
+  </si>
+  <si>
+    <t>5.7</t>
+  </si>
+  <si>
+    <t>3.7</t>
+  </si>
+  <si>
     <t>4.6</t>
   </si>
   <si>
-    <t>5.7</t>
-  </si>
-  <si>
-    <t>5.0</t>
-  </si>
-  <si>
-    <t>4.0</t>
-  </si>
-  <si>
     <t>4.8</t>
   </si>
   <si>
-    <t>3.6</t>
-  </si>
-  <si>
-    <t>5.6</t>
-  </si>
-  <si>
     <t>4.5</t>
   </si>
   <si>
-    <t>4.7</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
+    <t>3.9</t>
+  </si>
+  <si>
     <t>3.5</t>
   </si>
   <si>
-    <t>4.9</t>
-  </si>
-  <si>
     <t>79%</t>
   </si>
   <si>
+    <t>71%</t>
+  </si>
+  <si>
+    <t>86%</t>
+  </si>
+  <si>
+    <t>66%</t>
+  </si>
+  <si>
     <t>69%</t>
   </si>
   <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>68%</t>
-  </si>
-  <si>
-    <t>66%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>74%</t>
-  </si>
-  <si>
-    <t>82%</t>
-  </si>
-  <si>
-    <t>78%</t>
-  </si>
-  <si>
-    <t>85%</t>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>83%</t>
+  </si>
+  <si>
+    <t>76%</t>
+  </si>
+  <si>
+    <t>80%</t>
+  </si>
+  <si>
+    <t>73%</t>
   </si>
   <si>
     <t>93%</t>
   </si>
   <si>
-    <t>57%</t>
+    <t>58%</t>
   </si>
   <si>
     <t>61%</t>
   </si>
   <si>
+    <t>50%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>34%</t>
+  </si>
+  <si>
+    <t>52%</t>
+  </si>
+  <si>
+    <t>35%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>41%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>51%</t>
+  </si>
+  <si>
     <t>46%</t>
   </si>
   <si>
-    <t>36%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>37%</t>
-  </si>
-  <si>
-    <t>39%</t>
-  </si>
-  <si>
-    <t>56%</t>
-  </si>
-  <si>
-    <t>32%</t>
-  </si>
-  <si>
-    <t>40%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>49%</t>
-  </si>
-  <si>
-    <t>50%</t>
-  </si>
-  <si>
-    <t>45%</t>
+    <t>2.79</t>
+  </si>
+  <si>
+    <t>3.41</t>
+  </si>
+  <si>
+    <t>2.96</t>
+  </si>
+  <si>
+    <t>2.52</t>
+  </si>
+  <si>
+    <t>3.48</t>
+  </si>
+  <si>
+    <t>2.41</t>
+  </si>
+  <si>
+    <t>2.72</t>
+  </si>
+  <si>
+    <t>2.24</t>
+  </si>
+  <si>
+    <t>2.55</t>
+  </si>
+  <si>
+    <t>2.76</t>
+  </si>
+  <si>
+    <t>2.69</t>
+  </si>
+  <si>
+    <t>2.45</t>
+  </si>
+  <si>
+    <t>2.48</t>
+  </si>
+  <si>
+    <t>3.24</t>
   </si>
   <si>
     <t>2.61</t>
-  </si>
-  <si>
-    <t>3.36</t>
-  </si>
-  <si>
-    <t>2.81</t>
-  </si>
-  <si>
-    <t>2.54</t>
-  </si>
-  <si>
-    <t>3.50</t>
-  </si>
-  <si>
-    <t>2.46</t>
-  </si>
-  <si>
-    <t>2.33</t>
-  </si>
-  <si>
-    <t>2.71</t>
-  </si>
-  <si>
-    <t>2.50</t>
-  </si>
-  <si>
-    <t>2.78</t>
-  </si>
-  <si>
-    <t>2.39</t>
-  </si>
-  <si>
-    <t>2.67</t>
-  </si>
-  <si>
-    <t>2.63</t>
-  </si>
-  <si>
-    <t>3.18</t>
-  </si>
-  <si>
-    <t>2.59</t>
   </si>
 </sst>
 </file>
@@ -753,16 +747,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="E2" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F2" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="G2" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -776,16 +770,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="E3" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="G3" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -799,16 +793,16 @@
         <v>49</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E4" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="F4" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G4" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -822,16 +816,16 @@
         <v>50</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E5" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F5" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G5" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -842,19 +836,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E6" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="G6" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -865,19 +859,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="E7" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F7" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="G7" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -888,19 +882,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E8" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="G8" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -914,16 +908,16 @@
         <v>53</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="E9" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F9" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="G9" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -934,16 +928,16 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F10" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G10" t="s">
         <v>105</v>
@@ -957,16 +951,16 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E11" t="s">
-        <v>72</v>
+        <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>85</v>
+        <v>92</v>
       </c>
       <c r="G11" t="s">
         <v>106</v>
@@ -980,19 +974,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D12" t="s">
         <v>68</v>
       </c>
       <c r="E12" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F12" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="G12" t="s">
-        <v>107</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1003,19 +997,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D13" t="s">
-        <v>62</v>
+        <v>69</v>
       </c>
       <c r="E13" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="G13" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1026,19 +1020,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D14" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="E14" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F14" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G14" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1049,19 +1043,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="E15" t="s">
-        <v>72</v>
+        <v>80</v>
       </c>
       <c r="F15" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="G15" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1072,19 +1066,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D16" t="s">
-        <v>62</v>
+        <v>72</v>
       </c>
       <c r="E16" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>94</v>
+        <v>88</v>
       </c>
       <c r="G16" t="s">
-        <v>110</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1095,19 +1089,19 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="D17" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="E17" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F17" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G17" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1118,19 +1112,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D18" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="E18" t="s">
-        <v>77</v>
+        <v>83</v>
       </c>
       <c r="F18" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="G18" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1141,19 +1135,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="D19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E19" t="s">
         <v>81</v>
       </c>
       <c r="F19" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="G19" t="s">
-        <v>111</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1164,19 +1158,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>53</v>
+        <v>58</v>
       </c>
       <c r="D20" t="s">
-        <v>60</v>
+        <v>70</v>
       </c>
       <c r="E20" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F20" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="G20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1187,19 +1181,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D21" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="F21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="G21" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
   </sheetData>

--- a/top_league_soccer/Excel/dados_super_lig.xlsx
+++ b/top_league_soccer/Excel/dados_super_lig.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="113">
   <si>
     <t>#</t>
   </si>
@@ -109,18 +109,21 @@
     <t>Beşiktaş</t>
   </si>
   <si>
+    <t>Başakşehir</t>
+  </si>
+  <si>
+    <t>Rizespor</t>
+  </si>
+  <si>
     <t>Kasımpaşa</t>
   </si>
   <si>
-    <t>Başakşehir</t>
-  </si>
-  <si>
-    <t>Rizespor</t>
-  </si>
-  <si>
     <t>Antalyaspor</t>
   </si>
   <si>
+    <t>Alanyaspor</t>
+  </si>
+  <si>
     <t>Sivasspor</t>
   </si>
   <si>
@@ -130,7 +133,7 @@
     <t>Samsunspor</t>
   </si>
   <si>
-    <t>Alanyaspor</t>
+    <t>Ankaragücü</t>
   </si>
   <si>
     <t>Kayserispor</t>
@@ -142,214 +145,214 @@
     <t>Gaziantep</t>
   </si>
   <si>
-    <t>Ankaragücü</t>
+    <t>Karagümrük</t>
   </si>
   <si>
     <t>Hatayspor</t>
   </si>
   <si>
-    <t>Karagümrük</t>
-  </si>
-  <si>
     <t>Pendikspor</t>
   </si>
   <si>
     <t>İstanbulspor</t>
   </si>
   <si>
+    <t>1.8</t>
+  </si>
+  <si>
+    <t>2.5</t>
+  </si>
+  <si>
+    <t>2.3</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
     <t>1.9</t>
   </si>
   <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.0</t>
+  </si>
+  <si>
+    <t>1.5</t>
+  </si>
+  <si>
     <t>2.6</t>
   </si>
   <si>
-    <t>1.5</t>
-  </si>
-  <si>
-    <t>2.3</t>
-  </si>
-  <si>
-    <t>1.8</t>
-  </si>
-  <si>
-    <t>2.1</t>
-  </si>
-  <si>
-    <t>2.0</t>
-  </si>
-  <si>
-    <t>2.4</t>
-  </si>
-  <si>
-    <t>1.6</t>
-  </si>
-  <si>
     <t>2.8</t>
   </si>
   <si>
-    <t>2.5</t>
-  </si>
-  <si>
-    <t>2.2</t>
-  </si>
-  <si>
-    <t>7.2</t>
-  </si>
-  <si>
-    <t>6.3</t>
-  </si>
-  <si>
-    <t>4.9</t>
-  </si>
-  <si>
-    <t>5.6</t>
+    <t>7.0</t>
+  </si>
+  <si>
+    <t>6.0</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.5</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>4.7</t>
   </si>
   <si>
     <t>5.1</t>
   </si>
   <si>
-    <t>4.2</t>
-  </si>
-  <si>
-    <t>4.7</t>
-  </si>
-  <si>
-    <t>5.7</t>
+    <t>4.5</t>
+  </si>
+  <si>
+    <t>3.8</t>
+  </si>
+  <si>
+    <t>5.0</t>
+  </si>
+  <si>
+    <t>4.8</t>
   </si>
   <si>
     <t>3.7</t>
   </si>
   <si>
-    <t>4.6</t>
-  </si>
-  <si>
-    <t>4.8</t>
-  </si>
-  <si>
-    <t>4.5</t>
+    <t>4.4</t>
   </si>
   <si>
     <t>4.1</t>
   </si>
   <si>
-    <t>3.9</t>
-  </si>
-  <si>
-    <t>3.5</t>
-  </si>
-  <si>
-    <t>79%</t>
-  </si>
-  <si>
-    <t>71%</t>
-  </si>
-  <si>
-    <t>86%</t>
-  </si>
-  <si>
-    <t>66%</t>
+    <t>4.0</t>
+  </si>
+  <si>
+    <t>78%</t>
+  </si>
+  <si>
+    <t>82%</t>
+  </si>
+  <si>
+    <t>72%</t>
+  </si>
+  <si>
+    <t>70%</t>
+  </si>
+  <si>
+    <t>88%</t>
+  </si>
+  <si>
+    <t>73%</t>
+  </si>
+  <si>
+    <t>76%</t>
   </si>
   <si>
     <t>69%</t>
   </si>
   <si>
-    <t>72%</t>
-  </si>
-  <si>
-    <t>83%</t>
-  </si>
-  <si>
-    <t>76%</t>
-  </si>
-  <si>
-    <t>80%</t>
-  </si>
-  <si>
-    <t>73%</t>
-  </si>
-  <si>
-    <t>93%</t>
-  </si>
-  <si>
-    <t>58%</t>
-  </si>
-  <si>
-    <t>61%</t>
+    <t>85%</t>
+  </si>
+  <si>
+    <t>60%</t>
+  </si>
+  <si>
+    <t>67%</t>
+  </si>
+  <si>
+    <t>53%</t>
+  </si>
+  <si>
+    <t>43%</t>
+  </si>
+  <si>
+    <t>36%</t>
+  </si>
+  <si>
+    <t>55%</t>
+  </si>
+  <si>
+    <t>40%</t>
+  </si>
+  <si>
+    <t>45%</t>
+  </si>
+  <si>
+    <t>39%</t>
+  </si>
+  <si>
+    <t>33%</t>
+  </si>
+  <si>
+    <t>49%</t>
+  </si>
+  <si>
+    <t>42%</t>
+  </si>
+  <si>
+    <t>51%</t>
   </si>
   <si>
     <t>50%</t>
   </si>
   <si>
-    <t>45%</t>
-  </si>
-  <si>
-    <t>34%</t>
-  </si>
-  <si>
-    <t>52%</t>
-  </si>
-  <si>
-    <t>35%</t>
-  </si>
-  <si>
-    <t>55%</t>
-  </si>
-  <si>
-    <t>41%</t>
-  </si>
-  <si>
-    <t>42%</t>
-  </si>
-  <si>
-    <t>51%</t>
-  </si>
-  <si>
-    <t>46%</t>
+    <t>2.97</t>
+  </si>
+  <si>
+    <t>3.55</t>
+  </si>
+  <si>
+    <t>3.00</t>
+  </si>
+  <si>
+    <t>2.48</t>
   </si>
   <si>
     <t>2.79</t>
   </si>
   <si>
-    <t>3.41</t>
-  </si>
-  <si>
-    <t>2.96</t>
+    <t>3.45</t>
+  </si>
+  <si>
+    <t>2.30</t>
+  </si>
+  <si>
+    <t>2.70</t>
+  </si>
+  <si>
+    <t>2.58</t>
+  </si>
+  <si>
+    <t>2.82</t>
+  </si>
+  <si>
+    <t>2.42</t>
   </si>
   <si>
     <t>2.52</t>
   </si>
   <si>
-    <t>3.48</t>
-  </si>
-  <si>
-    <t>2.41</t>
-  </si>
-  <si>
-    <t>2.72</t>
-  </si>
-  <si>
-    <t>2.24</t>
-  </si>
-  <si>
     <t>2.55</t>
   </si>
   <si>
-    <t>2.76</t>
-  </si>
-  <si>
-    <t>2.69</t>
-  </si>
-  <si>
     <t>2.45</t>
   </si>
   <si>
-    <t>2.48</t>
-  </si>
-  <si>
-    <t>3.24</t>
-  </si>
-  <si>
-    <t>2.61</t>
+    <t>2.64</t>
+  </si>
+  <si>
+    <t>2.39</t>
+  </si>
+  <si>
+    <t>3.18</t>
+  </si>
+  <si>
+    <t>2.63</t>
   </si>
 </sst>
 </file>
@@ -747,16 +750,16 @@
         <v>47</v>
       </c>
       <c r="D2" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F2" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="G2" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -770,16 +773,16 @@
         <v>48</v>
       </c>
       <c r="D3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F3" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -790,19 +793,19 @@
         <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="D4" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E4" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F4" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="G4" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -813,19 +816,19 @@
         <v>30</v>
       </c>
       <c r="C5" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E5" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F5" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G5" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -836,19 +839,19 @@
         <v>31</v>
       </c>
       <c r="C6" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E6" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F6" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="G6" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -859,19 +862,19 @@
         <v>32</v>
       </c>
       <c r="C7" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E7" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -882,19 +885,19 @@
         <v>33</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F8" t="s">
-        <v>90</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -905,19 +908,19 @@
         <v>34</v>
       </c>
       <c r="C9" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D9" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="E9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F9" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="G9" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -928,19 +931,19 @@
         <v>35</v>
       </c>
       <c r="C10" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="D10" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G10" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -951,19 +954,19 @@
         <v>36</v>
       </c>
       <c r="C11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="D11" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
         <v>79</v>
       </c>
       <c r="F11" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="G11" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -974,19 +977,19 @@
         <v>37</v>
       </c>
       <c r="C12" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
       <c r="G12" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -997,19 +1000,19 @@
         <v>38</v>
       </c>
       <c r="C13" t="s">
-        <v>48</v>
+        <v>53</v>
       </c>
       <c r="D13" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="E13" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="F13" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G13" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1020,19 +1023,19 @@
         <v>39</v>
       </c>
       <c r="C14" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D14" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E14" t="s">
-        <v>82</v>
+        <v>73</v>
       </c>
       <c r="F14" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="G14" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1043,19 +1046,19 @@
         <v>40</v>
       </c>
       <c r="C15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D15" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E15" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F15" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
       <c r="G15" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1066,19 +1069,19 @@
         <v>41</v>
       </c>
       <c r="C16" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D16" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E16" t="s">
         <v>80</v>
       </c>
       <c r="F16" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1089,16 +1092,16 @@
         <v>42</v>
       </c>
       <c r="C17" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="D17" t="s">
-        <v>73</v>
+        <v>61</v>
       </c>
       <c r="E17" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="F17" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="G17" t="s">
         <v>109</v>
@@ -1112,19 +1115,19 @@
         <v>43</v>
       </c>
       <c r="C18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D18" t="s">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="E18" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="F18" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="G18" t="s">
-        <v>100</v>
+        <v>110</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1135,19 +1138,19 @@
         <v>44</v>
       </c>
       <c r="C19" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D19" t="s">
-        <v>61</v>
+        <v>69</v>
       </c>
       <c r="E19" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="F19" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="G19" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1158,19 +1161,19 @@
         <v>45</v>
       </c>
       <c r="C20" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D20" t="s">
-        <v>70</v>
+        <v>62</v>
       </c>
       <c r="E20" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="F20" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="G20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1181,19 +1184,19 @@
         <v>46</v>
       </c>
       <c r="C21" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="D21" t="s">
         <v>71</v>
       </c>
       <c r="E21" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="G21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
     </row>
   </sheetData>
